--- a/hw7_NetworkCompression/myCode/my-netword-sim/VS.xlsx
+++ b/hw7_NetworkCompression/myCode/my-netword-sim/VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PromiseChan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D2732E8-C2D4-4944-BBA1-8EB12A9F00A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDA7808-2C04-4F9B-AF6C-13C5FA7BE90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,17 +20,25 @@
     <sheet name="λ=0.00001" sheetId="5" r:id="rId5"/>
     <sheet name="λ=0.000001" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="14">
   <si>
     <t>λ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,12 +63,47 @@
     <t>test acc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>prune_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Original size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pruned size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.9M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>271K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.1M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +133,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -105,7 +176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -128,17 +199,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -884,18 +976,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
     <col min="5" max="5" width="16.25" customWidth="1"/>
     <col min="6" max="6" width="15.375" customWidth="1"/>
   </cols>
@@ -1018,6 +1110,647 @@
       </c>
       <c r="F6" s="3">
         <v>0.94499999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0.37930000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.77200000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.57599999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.437</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.31900000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>0</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.30199999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.20899999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.20899999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.93799999999999994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.93799999999999994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.93799999999999994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.93799999999999994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="11">
+        <v>9.1200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0.64300000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.60599999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+      <c r="A39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="8">
+        <v>0.37930000000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="B41" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.83699999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.69299999999999995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.46200000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.36199999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="B45" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.20899999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.21099999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="B47" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="B48" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.20899999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+      <c r="A52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C53" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="8">
+        <v>0.37930000000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B54" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0.74099999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B55" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0.60199999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B56" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0.32600000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B57" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0.31900000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B58" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0.219</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B59" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B60" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0.20899999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B61" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0.20899999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+      <c r="A66" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B67" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C67" s="5">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="D67" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="8">
+        <v>0.37930000000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B68" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0.78600000000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B69" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0.71799999999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B70" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0.57899999999999996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B71" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C71" s="3">
+        <v>0.32900000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B72" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B73" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0.32200000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B74" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="C74" s="3">
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B75" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="C75" s="3">
+        <v>0.20899999999999999</v>
       </c>
     </row>
   </sheetData>
